--- a/data/trans_orig/P36_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55007F71-71B8-45E7-8100-2FFB5AE63C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF3B334C-B492-46DD-A6D4-B3A908213A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD557727-792A-41EE-8B76-C8B44CE5AC58}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3954015D-7AA9-41D0-BC3A-22B6C6FC94FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,82 +71,79 @@
     <t>21,67%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>22,17%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>21,91%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
   </si>
   <si>
     <t>65,76%</t>
   </si>
   <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>62,82%</t>
   </si>
   <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
   </si>
   <si>
     <t>64,32%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>13,77%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>17,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,490 +155,493 @@
     <t>23,81%</t>
   </si>
   <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
   </si>
   <si>
     <t>28,65%</t>
   </si>
   <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
   </si>
   <si>
     <t>62,29%</t>
   </si>
   <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
   </si>
   <si>
     <t>58,56%</t>
   </si>
   <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
   </si>
   <si>
     <t>60,31%</t>
   </si>
   <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
   </si>
   <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1056,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BCB0D1-D01D-4562-8133-D4967A466346}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F086089-3A7C-46C3-818B-BA55AEF75E99}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1315,10 +1315,10 @@
         <v>34</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1333,13 +1333,13 @@
         <v>329802</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>191</v>
@@ -1348,13 +1348,13 @@
         <v>317407</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>349</v>
@@ -1363,18 +1363,18 @@
         <v>647208</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5">
         <v>3</v>
@@ -1386,13 +1386,13 @@
         <v>97286</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -1401,13 +1401,13 @@
         <v>133498</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>195</v>
@@ -1416,13 +1416,13 @@
         <v>230784</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1437,13 +1437,13 @@
         <v>254490</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>255</v>
@@ -1452,13 +1452,13 @@
         <v>272888</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>435</v>
@@ -1467,13 +1467,13 @@
         <v>527379</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1488,13 +1488,13 @@
         <v>56770</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -1503,13 +1503,13 @@
         <v>59573</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -1518,13 +1518,13 @@
         <v>116342</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1539,13 +1539,13 @@
         <v>408546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>431</v>
@@ -1554,13 +1554,13 @@
         <v>465959</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>720</v>
@@ -1569,18 +1569,18 @@
         <v>874505</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5">
         <v>3</v>
@@ -1592,13 +1592,13 @@
         <v>167299</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>261</v>
@@ -1607,13 +1607,13 @@
         <v>175529</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>422</v>
@@ -1622,13 +1622,13 @@
         <v>342827</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,13 +1643,13 @@
         <v>296055</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>452</v>
@@ -1658,13 +1658,13 @@
         <v>306502</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>751</v>
@@ -1673,13 +1673,13 @@
         <v>602556</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,13 +1694,13 @@
         <v>65635</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>96</v>
@@ -1709,13 +1709,13 @@
         <v>74362</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>157</v>
@@ -1724,13 +1724,13 @@
         <v>139997</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,13 +1745,13 @@
         <v>528988</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>809</v>
@@ -1760,13 +1760,13 @@
         <v>556393</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>1330</v>
@@ -1775,18 +1775,18 @@
         <v>1085380</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5">
         <v>3</v>
@@ -1798,13 +1798,13 @@
         <v>231877</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>415</v>
@@ -1813,13 +1813,13 @@
         <v>275951</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>652</v>
@@ -1828,13 +1828,13 @@
         <v>507827</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,13 +1849,13 @@
         <v>377698</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>579</v>
@@ -1864,13 +1864,13 @@
         <v>367616</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>911</v>
@@ -1879,13 +1879,13 @@
         <v>745314</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,13 +1900,13 @@
         <v>75698</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>101</v>
@@ -1915,13 +1915,13 @@
         <v>72761</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>166</v>
@@ -1930,13 +1930,13 @@
         <v>148459</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,13 +1951,13 @@
         <v>685273</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>1095</v>
@@ -1966,13 +1966,13 @@
         <v>716327</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1729</v>
@@ -1981,18 +1981,18 @@
         <v>1401600</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
@@ -2004,13 +2004,13 @@
         <v>194436</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>346</v>
@@ -2019,13 +2019,13 @@
         <v>203003</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>563</v>
@@ -2034,13 +2034,13 @@
         <v>397439</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,13 +2055,13 @@
         <v>306950</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>519</v>
@@ -2070,13 +2070,13 @@
         <v>303452</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>868</v>
@@ -2085,10 +2085,10 @@
         <v>610403</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>137</v>
@@ -2106,13 +2106,13 @@
         <v>57249</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>91</v>
@@ -2121,13 +2121,13 @@
         <v>60844</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
@@ -2136,13 +2136,13 @@
         <v>118093</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,13 +2157,13 @@
         <v>558636</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>956</v>
@@ -2172,13 +2172,13 @@
         <v>567299</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>1581</v>
@@ -2187,18 +2187,18 @@
         <v>1125935</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5">
         <v>3</v>
@@ -2210,13 +2210,13 @@
         <v>230854</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>537</v>
@@ -2225,13 +2225,13 @@
         <v>397687</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>883</v>
@@ -2240,13 +2240,13 @@
         <v>628540</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2261,13 @@
         <v>319534</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>890</v>
@@ -2276,13 +2276,13 @@
         <v>473866</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>1376</v>
@@ -2291,13 +2291,13 @@
         <v>793400</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2312,13 @@
         <v>88294</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>156</v>
@@ -2327,13 +2327,13 @@
         <v>95578</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>274</v>
@@ -2342,13 +2342,13 @@
         <v>183872</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2363,13 @@
         <v>638682</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>1583</v>
@@ -2378,13 +2378,13 @@
         <v>967131</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>2533</v>
@@ -2393,13 +2393,13 @@
         <v>1605812</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2416,13 @@
         <v>993204</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H28" s="7">
         <v>1726</v>
@@ -2431,10 +2431,10 @@
         <v>1256032</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>180</v>
@@ -2569,13 +2569,13 @@
         <v>3149926</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>5065</v>
@@ -2584,28 +2584,28 @@
         <v>3590516</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>8242</v>
       </c>
       <c r="N31" s="7">
-        <v>6740442</v>
+        <v>6740441</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF3B334C-B492-46DD-A6D4-B3A908213A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA3FB990-D6CA-4A24-AC41-4519DB23181B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3954015D-7AA9-41D0-BC3A-22B6C6FC94FE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F13A27CA-6B2B-426B-B6AB-FC4A7BDF1E93}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1056,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F086089-3A7C-46C3-818B-BA55AEF75E99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11019E37-C8D6-4642-A6D9-11AEAF7DE390}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
